--- a/po_analysis_by_asin/B081L3PSGK_po_data.xlsx
+++ b/po_analysis_by_asin/B081L3PSGK_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,54 +506,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45088.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>160</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -565,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,22 +561,6 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>500</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B081L3PSGK_po_data.xlsx
+++ b/po_analysis_by_asin/B081L3PSGK_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -559,6 +560,257 @@
       </c>
       <c r="B4" t="n">
         <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.229027425561182</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.56085802102525</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.62629175573134</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.62876921686846</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>46</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.96135995208966</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.25778382902132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27.10312485182257</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.83711115352112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>54</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.61953544965583</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75.72322403684733</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35.45673321370265</v>
+      </c>
+      <c r="D7" t="n">
+        <v>79.83588084553408</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.14395884808096</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83.43106226309268</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>66</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40.88012843941631</v>
+      </c>
+      <c r="D9" t="n">
+        <v>88.39186979994645</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>70</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45.93134808352851</v>
+      </c>
+      <c r="D10" t="n">
+        <v>92.78398823224195</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>74</v>
+      </c>
+      <c r="C11" t="n">
+        <v>51.40862558445972</v>
+      </c>
+      <c r="D11" t="n">
+        <v>97.44021547820476</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>54.69106259185307</v>
+      </c>
+      <c r="D12" t="n">
+        <v>99.88120448903834</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>81</v>
+      </c>
+      <c r="C13" t="n">
+        <v>58.12508903754218</v>
+      </c>
+      <c r="D13" t="n">
+        <v>104.4928196636394</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>85</v>
+      </c>
+      <c r="C14" t="n">
+        <v>60.45573279901129</v>
+      </c>
+      <c r="D14" t="n">
+        <v>107.0855195643106</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65.40880373071123</v>
+      </c>
+      <c r="D15" t="n">
+        <v>112.3466885313853</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>69.3807902779148</v>
+      </c>
+      <c r="D16" t="n">
+        <v>116.2028208023648</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B081L3PSGK_po_data.xlsx
+++ b/po_analysis_by_asin/B081L3PSGK_po_data.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,16 +592,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -610,12 +600,6 @@
       <c r="B2" t="n">
         <v>31</v>
       </c>
-      <c r="C2" t="n">
-        <v>6.229027425561182</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54.56085802102525</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -624,12 +608,6 @@
       <c r="B3" t="n">
         <v>39</v>
       </c>
-      <c r="C3" t="n">
-        <v>14.62629175573134</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61.62876921686846</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,12 +616,6 @@
       <c r="B4" t="n">
         <v>46</v>
       </c>
-      <c r="C4" t="n">
-        <v>22.96135995208966</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.25778382902132</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -652,12 +624,6 @@
       <c r="B5" t="n">
         <v>50</v>
       </c>
-      <c r="C5" t="n">
-        <v>27.10312485182257</v>
-      </c>
-      <c r="D5" t="n">
-        <v>74.83711115352112</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -666,12 +632,6 @@
       <c r="B6" t="n">
         <v>54</v>
       </c>
-      <c r="C6" t="n">
-        <v>29.61953544965583</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75.72322403684733</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -680,12 +640,6 @@
       <c r="B7" t="n">
         <v>58</v>
       </c>
-      <c r="C7" t="n">
-        <v>35.45673321370265</v>
-      </c>
-      <c r="D7" t="n">
-        <v>79.83588084553408</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -694,12 +648,6 @@
       <c r="B8" t="n">
         <v>62</v>
       </c>
-      <c r="C8" t="n">
-        <v>39.14395884808096</v>
-      </c>
-      <c r="D8" t="n">
-        <v>83.43106226309268</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -708,12 +656,6 @@
       <c r="B9" t="n">
         <v>66</v>
       </c>
-      <c r="C9" t="n">
-        <v>40.88012843941631</v>
-      </c>
-      <c r="D9" t="n">
-        <v>88.39186979994645</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -722,12 +664,6 @@
       <c r="B10" t="n">
         <v>70</v>
       </c>
-      <c r="C10" t="n">
-        <v>45.93134808352851</v>
-      </c>
-      <c r="D10" t="n">
-        <v>92.78398823224195</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -736,12 +672,6 @@
       <c r="B11" t="n">
         <v>74</v>
       </c>
-      <c r="C11" t="n">
-        <v>51.40862558445972</v>
-      </c>
-      <c r="D11" t="n">
-        <v>97.44021547820476</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -750,12 +680,6 @@
       <c r="B12" t="n">
         <v>77</v>
       </c>
-      <c r="C12" t="n">
-        <v>54.69106259185307</v>
-      </c>
-      <c r="D12" t="n">
-        <v>99.88120448903834</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -764,12 +688,6 @@
       <c r="B13" t="n">
         <v>81</v>
       </c>
-      <c r="C13" t="n">
-        <v>58.12508903754218</v>
-      </c>
-      <c r="D13" t="n">
-        <v>104.4928196636394</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -778,12 +696,6 @@
       <c r="B14" t="n">
         <v>85</v>
       </c>
-      <c r="C14" t="n">
-        <v>60.45573279901129</v>
-      </c>
-      <c r="D14" t="n">
-        <v>107.0855195643106</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -792,12 +704,6 @@
       <c r="B15" t="n">
         <v>89</v>
       </c>
-      <c r="C15" t="n">
-        <v>65.40880373071123</v>
-      </c>
-      <c r="D15" t="n">
-        <v>112.3466885313853</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -805,12 +711,6 @@
       </c>
       <c r="B16" t="n">
         <v>93</v>
-      </c>
-      <c r="C16" t="n">
-        <v>69.3807902779148</v>
-      </c>
-      <c r="D16" t="n">
-        <v>116.2028208023648</v>
       </c>
     </row>
   </sheetData>
